--- a/AtelierLapin/doc/DPI_List.xlsx
+++ b/AtelierLapin/doc/DPI_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shingo\AppData\Roaming\MetaQuotes\Terminal\A0BA7E3FF12928487EFBA3BA88FE6F94\MQL4\Experts\Logic46\AtelierLapin\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C61D0AD-A4B2-459A-BE36-CA42904F18B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791E2565-A2E0-43BC-BD13-3443A6B3326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8E756AFE-4DB6-4BA6-99B8-69507B0A2F32}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{8E756AFE-4DB6-4BA6-99B8-69507B0A2F32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
@@ -58,12 +54,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,11 +82,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,17 +415,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.65">
       <c r="E2">
-        <v>12</v>
+        <v>12.4</v>
       </c>
       <c r="F2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.65">
       <c r="B3" s="1">
         <v>2.25</v>
       </c>
@@ -425,19 +433,19 @@
         <v>216</v>
       </c>
       <c r="D3">
-        <f>(C3-$C$8)/$D$10</f>
+        <f t="shared" ref="D3:D7" si="0">(C3-$C$8)/$D$10</f>
         <v>5</v>
       </c>
       <c r="E3">
-        <f>E$2-$D3</f>
+        <f>ROUND(E$2-$D3,0)</f>
         <v>7</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F8" si="0">F$2-$D3</f>
+        <f>ROUND(F$2-$D3,0)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.65">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -445,39 +453,39 @@
         <v>192</v>
       </c>
       <c r="D4">
-        <f>(C4-$C$8)/$D$10</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:F8" si="1">E$2-$D4</f>
+        <f t="shared" ref="E4:F8" si="1">ROUND(E$2-$D4,0)</f>
         <v>8</v>
       </c>
       <c r="F4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.65">
+      <c r="B5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="C5" s="3">
+        <v>168</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="C5">
-        <v>168</v>
-      </c>
-      <c r="D5">
-        <f>(C5-$C$8)/$D$10</f>
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.65">
       <c r="B6" s="1">
         <v>1.5</v>
       </c>
@@ -485,7 +493,7 @@
         <v>144</v>
       </c>
       <c r="D6">
-        <f>(C6-$C$8)/$D$10</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E6">
@@ -493,11 +501,11 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.65">
       <c r="B7" s="1">
         <v>1.25</v>
       </c>
@@ -505,7 +513,7 @@
         <v>120</v>
       </c>
       <c r="D7">
-        <f>(C7-$C$8)/$D$10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E7">
@@ -513,11 +521,11 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.65">
       <c r="B8" s="1">
         <v>1</v>
       </c>
@@ -533,11 +541,11 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.65">
       <c r="D10">
         <v>24</v>
       </c>
